--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-AR6_R10.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-AR6_R10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AA9347-9C29-4017-AD55-8A80D5B9525C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95A756B-444B-46BA-A87A-823F3834046E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2622,7 +2622,7 @@
         <xdr:cNvPr id="30" name="Picture 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC152EA4-B7A6-F359-345C-912E6FED89C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1806DB85-E519-3673-AF5F-D5C0A3E1E38E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4027,7 +4027,7 @@
         <xdr:cNvPr id="30" name="Picture 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1464917-3F41-FA67-CD8F-D9986E7E9166}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C9E1577-60C7-71AB-2482-006D086EF993}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5432,7 +5432,7 @@
         <xdr:cNvPr id="30" name="Picture 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D3B51E1-D104-9422-6AEC-733D6AA37F49}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A29A21E3-EE48-DE23-5969-D1D590194FFE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-AR6_R10.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-AR6_R10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95A756B-444B-46BA-A87A-823F3834046E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30919974-493F-4257-87A6-F90DD3A95DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2622,7 +2622,7 @@
         <xdr:cNvPr id="30" name="Picture 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1806DB85-E519-3673-AF5F-D5C0A3E1E38E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1581285A-F9AB-857D-3271-A6EF4FBD32BF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4027,7 +4027,7 @@
         <xdr:cNvPr id="30" name="Picture 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C9E1577-60C7-71AB-2482-006D086EF993}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EE7BB1A-BBB3-CE95-166E-443BC321644C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5432,7 +5432,7 @@
         <xdr:cNvPr id="30" name="Picture 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A29A21E3-EE48-DE23-5969-D1D590194FFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CA8FA32-1192-21DB-1891-5B28537054C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-AR6_R10.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-AR6_R10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30919974-493F-4257-87A6-F90DD3A95DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE5AD14-F8D9-4473-91DD-020E608439FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2622,7 +2622,7 @@
         <xdr:cNvPr id="30" name="Picture 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1581285A-F9AB-857D-3271-A6EF4FBD32BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5DCFDD2-CE42-95CD-BAC4-EFB267A9515F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4027,7 +4027,7 @@
         <xdr:cNvPr id="30" name="Picture 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EE7BB1A-BBB3-CE95-166E-443BC321644C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42E6F199-24F4-55B6-36D4-2307B7EDF35E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5432,7 +5432,7 @@
         <xdr:cNvPr id="30" name="Picture 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CA8FA32-1192-21DB-1891-5B28537054C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E022DEF-613B-748C-5F06-5370E7A4363B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
